--- a/resources/login.xlsx
+++ b/resources/login.xlsx
@@ -100,13 +100,20 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -126,10 +133,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -137,8 +148,12 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -434,7 +449,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="36.7109375" defaultRowHeight="20.25" customHeight="1"/>
@@ -477,7 +492,7 @@
       <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="1">
@@ -633,6 +648,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
